--- a/temp/excel/Test.xlsx
+++ b/temp/excel/Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,34 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"名字1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"名字2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"名字3"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"名字4"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"名字5"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"名字6"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"名字7"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,15 +65,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"信息1","信息2","信息3"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>额外信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int32</t>
+  </si>
+  <si>
+    <t>名字1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字2</t>
+  </si>
+  <si>
+    <t>名字3</t>
+  </si>
+  <si>
+    <t>名字4</t>
+  </si>
+  <si>
+    <t>名字5</t>
+  </si>
+  <si>
+    <t>名字6</t>
+  </si>
+  <si>
+    <t>名字7</t>
+  </si>
+  <si>
+    <t>信息1|信息2|信息3|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息1|信息2|信息4|</t>
+  </si>
+  <si>
+    <t>信息1|信息2|信息5|</t>
+  </si>
+  <si>
+    <t>信息1|信息2|信息6|</t>
+  </si>
+  <si>
+    <t>信息1|信息2|信息7|</t>
+  </si>
+  <si>
+    <t>信息1|信息2|信息8|</t>
+  </si>
+  <si>
+    <t>信息1|信息2|信息9|</t>
   </si>
 </sst>
 </file>
@@ -429,7 +441,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E4" sqref="E4:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -442,33 +454,33 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -485,7 +497,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -493,7 +505,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -502,7 +514,7 @@
         <v>1000</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -510,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>101</v>
@@ -519,7 +531,7 @@
         <v>1001</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -527,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>102</v>
@@ -536,7 +548,7 @@
         <v>1002</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -544,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>103</v>
@@ -553,7 +565,7 @@
         <v>1003</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -561,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>104</v>
@@ -570,7 +582,7 @@
         <v>1004</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -578,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>105</v>
@@ -587,7 +599,7 @@
         <v>1005</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -595,7 +607,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>106</v>
@@ -604,7 +616,7 @@
         <v>1006</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
